--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Tartu/Centre_hospitalier_universitaire_de_Tartu.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Tartu/Centre_hospitalier_universitaire_de_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte des bâtiments du Centre hospitalier universitaire de Tartu.
@@ -513,13 +525,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital universitaire de Tartu est un service de soins de santé et d'enseignement médical et une composante de l'Université de Tartu.
 Ses services administratifs sont situés dans deux bâtiments de la rue Puusepa tänav; ses bâtiments sont répartis dans toute la ville de Tartu.
 Exceptionnellement, la clinique d'andrologie de la hôpital dispose d'un établissement rue Gonsiori tänav à Tallinn.
-Le CHU de Tartu a été fondée le 6 juin 1993 en tant qu'institution publique par le gouvernement de l'Estonie, l'Université de Tartu et la ville de Tartu[1].
-Le 22 décembre 1998, les fondateurs la réorganisent en fondation[1].
+Le CHU de Tartu a été fondée le 6 juin 1993 en tant qu'institution publique par le gouvernement de l'Estonie, l'Université de Tartu et la ville de Tartu.
+Le 22 décembre 1998, les fondateurs la réorganisent en fondation.
 </t>
         </is>
       </c>
@@ -548,10 +562,12 @@
           <t>Cliniques de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adresse principale de l'hôpital est Ludvig Puusepa tänav 8, 51014 Tartu.
-L'hôpital se compose de 19 cliniques[2]:
+L'hôpital se compose de 19 cliniques:
 </t>
         </is>
       </c>
